--- a/OOP-Course-Program-June-2015.xlsx
+++ b/OOP-Course-Program-June-2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="222"/>
+    <workbookView xWindow="0" yWindow="408" windowWidth="21180" windowHeight="6288" tabRatio="222"/>
   </bookViews>
   <sheets>
     <sheet name="OOP Program" sheetId="2" r:id="rId1"/>
@@ -302,7 +302,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <numFmt numFmtId="164" formatCode="d\-mmm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -705,23 +705,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -791,7 +791,7 @@
         <v>42162</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -815,7 +815,7 @@
         <v>42164</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -839,7 +839,7 @@
         <v>42164</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -863,7 +863,7 @@
         <v>42165</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -887,7 +887,7 @@
         <v>42169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -910,7 +910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -934,7 +934,7 @@
         <v>42172</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -958,7 +958,7 @@
         <v>42176</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -981,7 +981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>42183</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
@@ -1160,7 +1160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
